--- a/storage/catatan-atas-laporan-keuangan-2022.xlsx
+++ b/storage/catatan-atas-laporan-keuangan-2022.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
-  <si>
-    <t>U R A I A N</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+  <si>
+    <t>CATATAN ATAS LAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>URAIAN</t>
   </si>
   <si>
     <t>DES 2021</t>
@@ -147,6 +150,279 @@
   </si>
   <si>
     <t>- Lain-lain</t>
+  </si>
+  <si>
+    <t>4,687,041</t>
+  </si>
+  <si>
+    <t>322,013,489</t>
+  </si>
+  <si>
+    <t>213,381,865</t>
+  </si>
+  <si>
+    <t>108,631,624</t>
+  </si>
+  <si>
+    <t>4,887,807,520</t>
+  </si>
+  <si>
+    <t>4,342,256,513</t>
+  </si>
+  <si>
+    <t>810,118,000</t>
+  </si>
+  <si>
+    <t>806,243,000</t>
+  </si>
+  <si>
+    <t>2,590,816,860</t>
+  </si>
+  <si>
+    <t>2,240,307,853</t>
+  </si>
+  <si>
+    <t>231,074,500</t>
+  </si>
+  <si>
+    <t>150,802,000</t>
+  </si>
+  <si>
+    <t>50,416,000</t>
+  </si>
+  <si>
+    <t>46,107,000</t>
+  </si>
+  <si>
+    <t>230,316,640</t>
+  </si>
+  <si>
+    <t>187,773,640</t>
+  </si>
+  <si>
+    <t>364,927,520</t>
+  </si>
+  <si>
+    <t>346,241,020</t>
+  </si>
+  <si>
+    <t>594,472,000</t>
+  </si>
+  <si>
+    <t>549,116,000</t>
+  </si>
+  <si>
+    <t>15,666,000</t>
+  </si>
+  <si>
+    <t>-1,308,312,443</t>
+  </si>
+  <si>
+    <t>-235,581,986</t>
+  </si>
+  <si>
+    <t>-54,252</t>
+  </si>
+  <si>
+    <t>-766,086,864</t>
+  </si>
+  <si>
+    <t>-52,434</t>
+  </si>
+  <si>
+    <t>-27,129,394</t>
+  </si>
+  <si>
+    <t>-12,506</t>
+  </si>
+  <si>
+    <t>-1,599,041</t>
+  </si>
+  <si>
+    <t>-39,489,349</t>
+  </si>
+  <si>
+    <t>-11,533</t>
+  </si>
+  <si>
+    <t>-175,998,033</t>
+  </si>
+  <si>
+    <t>-21,343</t>
+  </si>
+  <si>
+    <t>-46,761,776</t>
+  </si>
+  <si>
+    <t>-15,666,000</t>
+  </si>
+  <si>
+    <t>40,478,000</t>
+  </si>
+  <si>
+    <t>-40,478,000</t>
+  </si>
+  <si>
+    <t>4,316,437,323</t>
+  </si>
+  <si>
+    <t>4,306,437,003</t>
+  </si>
+  <si>
+    <t>2,101,653,303</t>
+  </si>
+  <si>
+    <t>2,100,093,303</t>
+  </si>
+  <si>
+    <t>419,765,962</t>
+  </si>
+  <si>
+    <t>413,467,962</t>
+  </si>
+  <si>
+    <t>273,800,650</t>
+  </si>
+  <si>
+    <t>10,803,500</t>
+  </si>
+  <si>
+    <t>65,171,800</t>
+  </si>
+  <si>
+    <t>1,445,242,108</t>
+  </si>
+  <si>
+    <t>1,443,099,788</t>
+  </si>
+  <si>
+    <t>-4,316,437,323</t>
+  </si>
+  <si>
+    <t>-4,306,437,003</t>
+  </si>
+  <si>
+    <t>-2,101,653,303</t>
+  </si>
+  <si>
+    <t>-2,100,093,303</t>
+  </si>
+  <si>
+    <t>-419,765,962</t>
+  </si>
+  <si>
+    <t>-413,467,962</t>
+  </si>
+  <si>
+    <t>-273,800,650</t>
+  </si>
+  <si>
+    <t>-10,803,500</t>
+  </si>
+  <si>
+    <t>-65,171,800</t>
+  </si>
+  <si>
+    <t>-1,445,242,108</t>
+  </si>
+  <si>
+    <t>-1,443,099,788</t>
+  </si>
+  <si>
+    <t>135,922,648</t>
+  </si>
+  <si>
+    <t>3,075,060</t>
+  </si>
+  <si>
+    <t>132,847,588</t>
+  </si>
+  <si>
+    <t>3,488,933,969</t>
+  </si>
+  <si>
+    <t>9,472,557,781</t>
+  </si>
+  <si>
+    <t>342,652,403</t>
+  </si>
+  <si>
+    <t>15,767,074</t>
+  </si>
+  <si>
+    <t>147,692,944</t>
+  </si>
+  <si>
+    <t>15,279,664</t>
+  </si>
+  <si>
+    <t>7,280,735</t>
+  </si>
+  <si>
+    <t>487,410</t>
+  </si>
+  <si>
+    <t>21,678,300</t>
+  </si>
+  <si>
+    <t>165,620,424</t>
+  </si>
+  <si>
+    <t>380,000</t>
+  </si>
+  <si>
+    <t>-4,176,647</t>
+  </si>
+  <si>
+    <t>-323,982</t>
+  </si>
+  <si>
+    <t>-53,887,934</t>
+  </si>
+  <si>
+    <t>-5,657,419,503</t>
+  </si>
+  <si>
+    <t>-94,289,373</t>
+  </si>
+  <si>
+    <t>-2,356,460,560</t>
+  </si>
+  <si>
+    <t>-15,725,775</t>
+  </si>
+  <si>
+    <t>-1,122,563,185</t>
+  </si>
+  <si>
+    <t>6,973,100</t>
+  </si>
+  <si>
+    <t>-299,125,157</t>
+  </si>
+  <si>
+    <t>-1,544,911</t>
+  </si>
+  <si>
+    <t>41,935,073</t>
+  </si>
+  <si>
+    <t>-53,650,374</t>
+  </si>
+  <si>
+    <t>-19,438,118</t>
+  </si>
+  <si>
+    <t>-284,031,333</t>
+  </si>
+  <si>
+    <t>28,256,200</t>
+  </si>
+  <si>
+    <t>-1,555,709,983</t>
+  </si>
+  <si>
+    <t>-3,248,833</t>
   </si>
 </sst>
 </file>
@@ -154,9 +430,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -179,9 +464,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,838 +773,853 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4687041.0</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4687041.0</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>322013489.0</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>213381865.0</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>108631624.0</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4887807520.0</v>
-      </c>
-      <c r="C11">
-        <v>4342256513.0</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>810118000.0</v>
-      </c>
-      <c r="C12">
-        <v>806243000.0</v>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2590816860.0</v>
-      </c>
-      <c r="C13">
-        <v>2240307853.0</v>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>231074500.0</v>
-      </c>
-      <c r="C14">
-        <v>150802000.0</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>50416000.0</v>
-      </c>
-      <c r="C15">
-        <v>46107000.0</v>
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>230316640.0</v>
-      </c>
-      <c r="C16">
-        <v>187773640.0</v>
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>364927520.0</v>
-      </c>
-      <c r="C17">
-        <v>346241020.0</v>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>594472000.0</v>
-      </c>
-      <c r="C18">
-        <v>549116000.0</v>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>15666000.0</v>
-      </c>
-      <c r="C19">
-        <v>15666000.0</v>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>-1308312443.0</v>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>-235581986.0</v>
-      </c>
-      <c r="C21">
-        <v>-54252.15</v>
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>-766086864.0</v>
-      </c>
-      <c r="C22">
-        <v>-52434.05</v>
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23">
-        <v>-27129394.0</v>
-      </c>
-      <c r="C23">
-        <v>-12506.31</v>
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24">
-        <v>-1599041.0</v>
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25">
-        <v>-39489349.0</v>
-      </c>
-      <c r="C25">
-        <v>-11532.69</v>
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26">
-        <v>-175998033.0</v>
-      </c>
-      <c r="C26">
-        <v>-21342.79</v>
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27">
-        <v>-46761776.0</v>
-      </c>
-      <c r="C27">
-        <v>-54252.15</v>
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28">
-        <v>-15666000.0</v>
-      </c>
-      <c r="C28">
-        <v>-54252.15</v>
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>40478000.0</v>
-      </c>
-      <c r="C31">
-        <v>40478000.0</v>
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>40478000.0</v>
-      </c>
-      <c r="C32">
-        <v>40478000.0</v>
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33">
-        <v>-40478000.0</v>
-      </c>
-      <c r="C33">
-        <v>-40478000.0</v>
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34">
-        <v>-40478000.0</v>
-      </c>
-      <c r="C34">
-        <v>-40478000.0</v>
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35">
-        <v>4316437323.0</v>
-      </c>
-      <c r="C35">
-        <v>4306437003.0</v>
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36">
-        <v>2101653303.0</v>
-      </c>
-      <c r="C36">
-        <v>2100093303.0</v>
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37">
-        <v>419765962.0</v>
-      </c>
-      <c r="C37">
-        <v>413467962.0</v>
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>273800650.0</v>
-      </c>
-      <c r="C38">
-        <v>273800650.0</v>
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40">
-        <v>10803500.0</v>
-      </c>
-      <c r="C40">
-        <v>10803500.0</v>
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41">
-        <v>65171800.0</v>
-      </c>
-      <c r="C41">
-        <v>65171800.0</v>
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42">
-        <v>1445242108.0</v>
-      </c>
-      <c r="C42">
-        <v>1443099788.0</v>
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44">
-        <v>-4316437323.0</v>
-      </c>
-      <c r="C44">
-        <v>-4306437003.0</v>
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45">
-        <v>-2101653303.0</v>
-      </c>
-      <c r="C45">
-        <v>-2100093303.0</v>
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46">
-        <v>-419765962.0</v>
-      </c>
-      <c r="C46">
-        <v>-413467962.0</v>
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47">
-        <v>-273800650.0</v>
-      </c>
-      <c r="C47">
-        <v>-273800650.0</v>
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49">
-        <v>-10803500.0</v>
-      </c>
-      <c r="C49">
-        <v>-10803500.0</v>
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50">
-        <v>-65171800.0</v>
-      </c>
-      <c r="C50">
-        <v>-65171800.0</v>
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51">
-        <v>-1445242108.0</v>
-      </c>
-      <c r="C51">
-        <v>-1443099788.0</v>
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53">
-        <v>135922648.0</v>
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
       </c>
       <c r="C53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54">
-        <v>3075060.0</v>
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
       </c>
       <c r="C54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55">
-        <v>132847588.0</v>
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
       </c>
       <c r="C55">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56">
-        <v>3488933969.0</v>
-      </c>
-      <c r="C56">
-        <v>9472557780.79</v>
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57">
-        <v>3488933969.0</v>
-      </c>
-      <c r="C57">
-        <v>9472557780.79</v>
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58">
-        <v>342652403.0</v>
-      </c>
-      <c r="C58">
-        <v>15767074.46</v>
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59">
-        <v>147692944.0</v>
-      </c>
-      <c r="C59">
-        <v>15279664.0</v>
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60">
-        <v>7280735.0</v>
-      </c>
-      <c r="C60">
-        <v>487410.46</v>
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61">
-        <v>21678300.0</v>
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
       </c>
       <c r="C61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62">
-        <v>165620424.0</v>
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
       </c>
       <c r="C62">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63">
-        <v>380000.0</v>
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
       </c>
       <c r="C63">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64">
-        <v>-4176647.0</v>
-      </c>
-      <c r="C64">
-        <v>-323982.09</v>
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65">
-        <v>-4176647.0</v>
-      </c>
-      <c r="C65">
-        <v>-323982.09</v>
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67">
-        <v>-53887934.0</v>
-      </c>
-      <c r="C67">
-        <v>-5657419503.0</v>
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68">
-        <v>-94289373.0</v>
-      </c>
-      <c r="C68">
-        <v>-2356460560.0</v>
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69">
-        <v>-15725775.0</v>
-      </c>
-      <c r="C69">
-        <v>-1122563185.0</v>
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70">
-        <v>6973100.0</v>
-      </c>
-      <c r="C70">
-        <v>-299125157.0</v>
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71">
-        <v>-1599041.0</v>
-      </c>
-      <c r="C71">
-        <v>-1544911.0</v>
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72">
-        <v>41935073.0</v>
-      </c>
-      <c r="C72">
-        <v>-53650374.0</v>
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73">
-        <v>-19438118.0</v>
-      </c>
-      <c r="C73">
-        <v>-284031333.0</v>
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B74">
-        <v>28256200.0</v>
-      </c>
-      <c r="C74">
-        <v>-1555709983.0</v>
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>0.0</v>
-      </c>
-      <c r="C75">
-        <v>15666000.0</v>
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76">
-        <v>-3248833.0</v>
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>135</v>
       </c>
       <c r="C76">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77">
-        <v>-3248833.0</v>
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>135</v>
       </c>
       <c r="C77">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/storage/catatan-atas-laporan-keuangan-2022.xlsx
+++ b/storage/catatan-atas-laporan-keuangan-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>CATATAN ATAS LAPORAN KEUANGAN</t>
   </si>
@@ -26,7 +26,7 @@
     <t>DES 2021</t>
   </si>
   <si>
-    <t>BULAN Jul 2022</t>
+    <t>BULAN Aug 2022</t>
   </si>
   <si>
     <t>KAS</t>
@@ -155,61 +155,70 @@
     <t>4,687,041</t>
   </si>
   <si>
+    <t>11,993,240</t>
+  </si>
+  <si>
     <t>322,013,489</t>
   </si>
   <si>
+    <t>848,840,221</t>
+  </si>
+  <si>
     <t>213,381,865</t>
   </si>
   <si>
+    <t>141,667,261</t>
+  </si>
+  <si>
     <t>108,631,624</t>
   </si>
   <si>
+    <t>707,172,960</t>
+  </si>
+  <si>
     <t>4,887,807,520</t>
   </si>
   <si>
-    <t>4,342,256,513</t>
+    <t>4,484,401,134</t>
   </si>
   <si>
     <t>810,118,000</t>
   </si>
   <si>
-    <t>806,243,000</t>
+    <t>935,417,644</t>
   </si>
   <si>
     <t>2,590,816,860</t>
   </si>
   <si>
-    <t>2,240,307,853</t>
+    <t>2,453,012,330</t>
   </si>
   <si>
     <t>231,074,500</t>
   </si>
   <si>
-    <t>150,802,000</t>
+    <t>160,683,000</t>
   </si>
   <si>
     <t>50,416,000</t>
   </si>
   <si>
-    <t>46,107,000</t>
-  </si>
-  <si>
     <t>230,316,640</t>
   </si>
   <si>
-    <t>187,773,640</t>
+    <t>133,312,640</t>
   </si>
   <si>
     <t>364,927,520</t>
   </si>
   <si>
-    <t>346,241,020</t>
+    <t>372,799,520</t>
   </si>
   <si>
     <t>594,472,000</t>
   </si>
   <si>
-    <t>549,116,000</t>
+    <t>413,510,000</t>
   </si>
   <si>
     <t>15,666,000</t>
@@ -218,10 +227,13 @@
     <t>-1,308,312,443</t>
   </si>
   <si>
+    <t>2,418,797,029</t>
+  </si>
+  <si>
     <t>-235,581,986</t>
   </si>
   <si>
-    <t>-54,252</t>
+    <t>-1,402,901</t>
   </si>
   <si>
     <t>-766,086,864</t>
@@ -254,9 +266,18 @@
     <t>-46,761,776</t>
   </si>
   <si>
+    <t>-9,321</t>
+  </si>
+  <si>
     <t>-15,666,000</t>
   </si>
   <si>
+    <t>-15,666</t>
+  </si>
+  <si>
+    <t>18,720,000</t>
+  </si>
+  <si>
     <t>40,478,000</t>
   </si>
   <si>
@@ -266,67 +287,82 @@
     <t>4,316,437,323</t>
   </si>
   <si>
-    <t>4,306,437,003</t>
+    <t>11,801,037,585</t>
   </si>
   <si>
     <t>2,101,653,303</t>
   </si>
   <si>
-    <t>2,100,093,303</t>
+    <t>4,895,200,726</t>
   </si>
   <si>
     <t>419,765,962</t>
   </si>
   <si>
-    <t>413,467,962</t>
+    <t>2,421,543,518</t>
   </si>
   <si>
     <t>273,800,650</t>
   </si>
   <si>
+    <t>803,060,800</t>
+  </si>
+  <si>
     <t>10,803,500</t>
   </si>
   <si>
+    <t>217,163,640</t>
+  </si>
+  <si>
     <t>65,171,800</t>
   </si>
   <si>
+    <t>452,736,120</t>
+  </si>
+  <si>
     <t>1,445,242,108</t>
   </si>
   <si>
-    <t>1,443,099,788</t>
+    <t>2,990,854,206</t>
   </si>
   <si>
     <t>-4,316,437,323</t>
   </si>
   <si>
-    <t>-4,306,437,003</t>
-  </si>
-  <si>
     <t>-2,101,653,303</t>
   </si>
   <si>
-    <t>-2,100,093,303</t>
+    <t>-11,230</t>
   </si>
   <si>
     <t>-419,765,962</t>
   </si>
   <si>
-    <t>-413,467,962</t>
+    <t>-17,125</t>
   </si>
   <si>
     <t>-273,800,650</t>
   </si>
   <si>
+    <t>-1,000</t>
+  </si>
+  <si>
     <t>-10,803,500</t>
   </si>
   <si>
+    <t>-6,074</t>
+  </si>
+  <si>
     <t>-65,171,800</t>
   </si>
   <si>
+    <t>-2,205</t>
+  </si>
+  <si>
     <t>-1,445,242,108</t>
   </si>
   <si>
-    <t>-1,443,099,788</t>
+    <t>-2,325</t>
   </si>
   <si>
     <t>135,922,648</t>
@@ -341,30 +377,30 @@
     <t>3,488,933,969</t>
   </si>
   <si>
-    <t>9,472,557,781</t>
+    <t>86,188,895</t>
   </si>
   <si>
     <t>342,652,403</t>
   </si>
   <si>
-    <t>15,767,074</t>
-  </si>
-  <si>
     <t>147,692,944</t>
   </si>
   <si>
-    <t>15,279,664</t>
+    <t>12,530,880</t>
   </si>
   <si>
     <t>7,280,735</t>
   </si>
   <si>
-    <t>487,410</t>
+    <t>806,290</t>
   </si>
   <si>
     <t>21,678,300</t>
   </si>
   <si>
+    <t>9,673,300</t>
+  </si>
+  <si>
     <t>165,620,424</t>
   </si>
   <si>
@@ -374,55 +410,49 @@
     <t>-4,176,647</t>
   </si>
   <si>
-    <t>-323,982</t>
-  </si>
-  <si>
     <t>-53,887,934</t>
   </si>
   <si>
-    <t>-5,657,419,503</t>
-  </si>
-  <si>
     <t>-94,289,373</t>
   </si>
   <si>
-    <t>-2,356,460,560</t>
+    <t>285,250,803</t>
   </si>
   <si>
     <t>-15,725,775</t>
   </si>
   <si>
-    <t>-1,122,563,185</t>
+    <t>733,183,655</t>
   </si>
   <si>
     <t>6,973,100</t>
   </si>
   <si>
-    <t>-299,125,157</t>
-  </si>
-  <si>
-    <t>-1,544,911</t>
+    <t>34,089,988</t>
   </si>
   <si>
     <t>41,935,073</t>
   </si>
   <si>
-    <t>-53,650,374</t>
+    <t>81,412,889</t>
   </si>
   <si>
     <t>-19,438,118</t>
   </si>
   <si>
-    <t>-284,031,333</t>
+    <t>156,538,572</t>
   </si>
   <si>
     <t>28,256,200</t>
   </si>
   <si>
-    <t>-1,555,709,983</t>
+    <t>55,450,655</t>
   </si>
   <si>
     <t>-3,248,833</t>
+  </si>
+  <si>
+    <t>-2,012,500</t>
   </si>
 </sst>
 </file>
@@ -808,8 +838,8 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -819,8 +849,8 @@
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -828,10 +858,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -839,10 +869,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -850,10 +880,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -883,10 +913,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -894,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -905,10 +935,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -916,10 +946,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -927,10 +957,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -938,10 +968,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -949,10 +979,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -960,10 +990,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -971,10 +1001,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -982,10 +1012,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -993,10 +1023,10 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1004,10 +1034,10 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1015,10 +1045,10 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1026,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1037,10 +1067,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1048,10 +1078,10 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1059,10 +1089,10 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1070,10 +1100,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1083,8 +1113,8 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1094,8 +1124,8 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1103,10 +1133,10 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1114,10 +1144,10 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1125,10 +1155,10 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1136,10 +1166,10 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1147,10 +1177,10 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1158,10 +1188,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1169,10 +1199,10 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1180,10 +1210,10 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1202,10 +1232,10 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1213,10 +1243,10 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1224,10 +1254,10 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1237,8 +1267,8 @@
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43">
-        <v>0</v>
+      <c r="C43" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1246,10 +1276,10 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1257,10 +1287,10 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1268,10 +1298,10 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1279,10 +1309,10 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1301,10 +1331,10 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1312,10 +1342,10 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1323,10 +1353,10 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1345,10 +1375,10 @@
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1356,10 +1386,10 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1367,10 +1397,10 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1378,10 +1408,10 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1389,10 +1419,10 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1400,10 +1430,10 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1411,10 +1441,10 @@
         <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1422,10 +1452,10 @@
         <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1433,10 +1463,10 @@
         <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1444,7 +1474,7 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1455,7 +1485,7 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1466,10 +1496,10 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" t="s">
-        <v>119</v>
+        <v>130</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1477,10 +1507,10 @@
         <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" t="s">
-        <v>119</v>
+        <v>130</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1499,10 +1529,10 @@
         <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" t="s">
-        <v>121</v>
+        <v>131</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1510,10 +1540,10 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1521,10 +1551,10 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1532,10 +1562,10 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1543,10 +1573,10 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>128</v>
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1554,10 +1584,10 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1565,10 +1595,10 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1576,10 +1606,10 @@
         <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1589,8 +1619,8 @@
       <c r="B75">
         <v>0</v>
       </c>
-      <c r="C75" t="s">
-        <v>65</v>
+      <c r="C75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1598,10 +1628,10 @@
         <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1609,10 +1639,10 @@
         <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/storage/catatan-atas-laporan-keuangan-2022.xlsx
+++ b/storage/catatan-atas-laporan-keuangan-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>CATATAN ATAS LAPORAN KEUANGAN</t>
   </si>
@@ -26,13 +26,13 @@
     <t>DES 2021</t>
   </si>
   <si>
-    <t>BULAN Aug 2022</t>
+    <t>BULAN Sep 2022</t>
   </si>
   <si>
     <t>KAS</t>
   </si>
   <si>
-    <t>- Kas PKP</t>
+    <t>- Kas PK</t>
   </si>
   <si>
     <t>BANK</t>
@@ -155,70 +155,73 @@
     <t>4,687,041</t>
   </si>
   <si>
-    <t>11,993,240</t>
+    <t>15,893,240</t>
   </si>
   <si>
     <t>322,013,489</t>
   </si>
   <si>
-    <t>848,840,221</t>
+    <t>873,088,264</t>
   </si>
   <si>
     <t>213,381,865</t>
   </si>
   <si>
-    <t>141,667,261</t>
+    <t>153,994,304</t>
   </si>
   <si>
     <t>108,631,624</t>
   </si>
   <si>
-    <t>707,172,960</t>
+    <t>719,093,960</t>
   </si>
   <si>
     <t>4,887,807,520</t>
   </si>
   <si>
-    <t>4,484,401,134</t>
+    <t>4,615,919,298</t>
   </si>
   <si>
     <t>810,118,000</t>
   </si>
   <si>
-    <t>935,417,644</t>
+    <t>837,957,000</t>
   </si>
   <si>
     <t>2,590,816,860</t>
   </si>
   <si>
-    <t>2,453,012,330</t>
+    <t>2,543,280,430</t>
   </si>
   <si>
     <t>231,074,500</t>
   </si>
   <si>
-    <t>160,683,000</t>
+    <t>260,882,708</t>
   </si>
   <si>
     <t>50,416,000</t>
   </si>
   <si>
+    <t>55,000,000</t>
+  </si>
+  <si>
     <t>230,316,640</t>
   </si>
   <si>
-    <t>133,312,640</t>
+    <t>186,361,640</t>
   </si>
   <si>
     <t>364,927,520</t>
   </si>
   <si>
-    <t>372,799,520</t>
+    <t>338,289,020</t>
   </si>
   <si>
     <t>594,472,000</t>
   </si>
   <si>
-    <t>413,510,000</t>
+    <t>378,482,500</t>
   </si>
   <si>
     <t>15,666,000</t>
@@ -227,25 +230,25 @@
     <t>-1,308,312,443</t>
   </si>
   <si>
-    <t>2,418,797,029</t>
+    <t>-260,572,290</t>
   </si>
   <si>
     <t>-235,581,986</t>
   </si>
   <si>
-    <t>-1,402,901</t>
+    <t>-612,789,407</t>
   </si>
   <si>
     <t>-766,086,864</t>
   </si>
   <si>
-    <t>-52,434</t>
+    <t>-3,746,147,399</t>
   </si>
   <si>
     <t>-27,129,394</t>
   </si>
   <si>
-    <t>-12,506</t>
+    <t>-79,301,070</t>
   </si>
   <si>
     <t>-1,599,041</t>
@@ -254,30 +257,24 @@
     <t>-39,489,349</t>
   </si>
   <si>
-    <t>-11,533</t>
+    <t>-106,163,008</t>
   </si>
   <si>
     <t>-175,998,033</t>
   </si>
   <si>
-    <t>-21,343</t>
+    <t>-1,033,509,256</t>
   </si>
   <si>
     <t>-46,761,776</t>
   </si>
   <si>
-    <t>-9,321</t>
+    <t>-1,144,636,896</t>
   </si>
   <si>
     <t>-15,666,000</t>
   </si>
   <si>
-    <t>-15,666</t>
-  </si>
-  <si>
-    <t>18,720,000</t>
-  </si>
-  <si>
     <t>40,478,000</t>
   </si>
   <si>
@@ -287,82 +284,67 @@
     <t>4,316,437,323</t>
   </si>
   <si>
-    <t>11,801,037,585</t>
+    <t>2,260,159,020</t>
   </si>
   <si>
     <t>2,101,653,303</t>
   </si>
   <si>
-    <t>4,895,200,726</t>
-  </si>
-  <si>
     <t>419,765,962</t>
   </si>
   <si>
-    <t>2,421,543,518</t>
+    <t>449,578,462</t>
   </si>
   <si>
     <t>273,800,650</t>
   </si>
   <si>
-    <t>803,060,800</t>
+    <t>268,300,650</t>
   </si>
   <si>
     <t>10,803,500</t>
   </si>
   <si>
-    <t>217,163,640</t>
-  </si>
-  <si>
     <t>65,171,800</t>
   </si>
   <si>
-    <t>452,736,120</t>
-  </si>
-  <si>
     <t>1,445,242,108</t>
   </si>
   <si>
-    <t>2,990,854,206</t>
+    <t>1,466,304,608</t>
   </si>
   <si>
     <t>-4,316,437,323</t>
   </si>
   <si>
+    <t>-2,260,159,020</t>
+  </si>
+  <si>
     <t>-2,101,653,303</t>
   </si>
   <si>
-    <t>-11,230</t>
-  </si>
-  <si>
     <t>-419,765,962</t>
   </si>
   <si>
-    <t>-17,125</t>
+    <t>-449,578,462</t>
   </si>
   <si>
     <t>-273,800,650</t>
   </si>
   <si>
-    <t>-1,000</t>
+    <t>-268,300,650</t>
   </si>
   <si>
     <t>-10,803,500</t>
   </si>
   <si>
-    <t>-6,074</t>
-  </si>
-  <si>
     <t>-65,171,800</t>
   </si>
   <si>
-    <t>-2,205</t>
-  </si>
-  <si>
     <t>-1,445,242,108</t>
   </si>
   <si>
-    <t>-2,325</t>
+    <t>-1,466,304,608</t>
   </si>
   <si>
     <t>135,922,648</t>
@@ -377,28 +359,25 @@
     <t>3,488,933,969</t>
   </si>
   <si>
-    <t>86,188,895</t>
-  </si>
-  <si>
     <t>342,652,403</t>
   </si>
   <si>
     <t>147,692,944</t>
   </si>
   <si>
-    <t>12,530,880</t>
+    <t>21,727,000</t>
   </si>
   <si>
     <t>7,280,735</t>
   </si>
   <si>
-    <t>806,290</t>
+    <t>549,334</t>
   </si>
   <si>
     <t>21,678,300</t>
   </si>
   <si>
-    <t>9,673,300</t>
+    <t>3,842,000</t>
   </si>
   <si>
     <t>165,620,424</t>
@@ -410,49 +389,31 @@
     <t>-4,176,647</t>
   </si>
   <si>
+    <t>336,366</t>
+  </si>
+  <si>
     <t>-53,887,934</t>
   </si>
   <si>
     <t>-94,289,373</t>
   </si>
   <si>
-    <t>285,250,803</t>
-  </si>
-  <si>
     <t>-15,725,775</t>
   </si>
   <si>
-    <t>733,183,655</t>
-  </si>
-  <si>
     <t>6,973,100</t>
   </si>
   <si>
-    <t>34,089,988</t>
-  </si>
-  <si>
     <t>41,935,073</t>
   </si>
   <si>
-    <t>81,412,889</t>
-  </si>
-  <si>
     <t>-19,438,118</t>
   </si>
   <si>
-    <t>156,538,572</t>
-  </si>
-  <si>
     <t>28,256,200</t>
   </si>
   <si>
-    <t>55,450,655</t>
-  </si>
-  <si>
     <t>-3,248,833</t>
-  </si>
-  <si>
-    <t>-2,012,500</t>
   </si>
 </sst>
 </file>
@@ -959,8 +920,8 @@
       <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -968,10 +929,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -979,10 +940,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -990,10 +951,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1001,10 +962,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1012,10 +973,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1023,10 +984,10 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1034,10 +995,10 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1045,10 +1006,10 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1056,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1067,10 +1028,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1078,10 +1039,10 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1089,10 +1050,10 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1100,10 +1061,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
         <v>85</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1113,8 +1074,8 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
-        <v>86</v>
+      <c r="C29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1124,8 +1085,8 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
-        <v>86</v>
+      <c r="C30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1133,10 +1094,10 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1144,7 +1105,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1155,10 +1116,10 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
         <v>87</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1166,10 +1127,10 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" t="s">
         <v>87</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1177,10 +1138,10 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
         <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1188,10 +1149,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1199,10 +1160,10 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1210,10 +1171,10 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1232,10 +1193,10 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1243,10 +1204,10 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1254,10 +1215,10 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1267,8 +1228,8 @@
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" t="s">
-        <v>68</v>
+      <c r="C43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1276,10 +1237,10 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1287,10 +1248,10 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1298,10 +1259,10 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1309,10 +1270,10 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1331,10 +1292,10 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1342,10 +1303,10 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1353,10 +1314,10 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1375,10 +1336,10 @@
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1386,10 +1347,10 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1397,10 +1358,10 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1408,10 +1369,10 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1419,10 +1380,10 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1430,10 +1391,10 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" t="s">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1441,10 +1402,10 @@
         <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1452,10 +1413,10 @@
         <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1463,10 +1424,10 @@
         <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1474,7 +1435,7 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1485,7 +1446,7 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1496,7 +1457,7 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1507,10 +1468,10 @@
         <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1529,7 +1490,7 @@
         <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1540,10 +1501,10 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1551,10 +1512,10 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1562,10 +1523,10 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" t="s">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1573,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1584,10 +1545,10 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1595,10 +1556,10 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1606,10 +1567,10 @@
         <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" t="s">
-        <v>143</v>
+        <v>131</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1628,10 +1589,10 @@
         <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" t="s">
-        <v>145</v>
+        <v>132</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1639,10 +1600,10 @@
         <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" t="s">
-        <v>145</v>
+        <v>132</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/storage/catatan-atas-laporan-keuangan-2022.xlsx
+++ b/storage/catatan-atas-laporan-keuangan-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>CATATAN ATAS LAPORAN KEUANGAN</t>
   </si>
@@ -26,7 +26,7 @@
     <t>DES 2021</t>
   </si>
   <si>
-    <t>BULAN Sep 2022</t>
+    <t>BULAN Februari 2022</t>
   </si>
   <si>
     <t>KAS</t>
@@ -155,73 +155,73 @@
     <t>4,687,041</t>
   </si>
   <si>
-    <t>15,893,240</t>
+    <t>16,345,541</t>
   </si>
   <si>
     <t>322,013,489</t>
   </si>
   <si>
-    <t>873,088,264</t>
+    <t>705,110,667</t>
   </si>
   <si>
     <t>213,381,865</t>
   </si>
   <si>
-    <t>153,994,304</t>
+    <t>264,434,814</t>
   </si>
   <si>
     <t>108,631,624</t>
   </si>
   <si>
-    <t>719,093,960</t>
+    <t>440,675,853</t>
   </si>
   <si>
     <t>4,887,807,520</t>
   </si>
   <si>
-    <t>4,615,919,298</t>
+    <t>4,527,264,517</t>
   </si>
   <si>
     <t>810,118,000</t>
   </si>
   <si>
-    <t>837,957,000</t>
+    <t>731,648,500</t>
   </si>
   <si>
     <t>2,590,816,860</t>
   </si>
   <si>
-    <t>2,543,280,430</t>
+    <t>2,390,869,857</t>
   </si>
   <si>
     <t>231,074,500</t>
   </si>
   <si>
-    <t>260,882,708</t>
+    <t>211,563,500</t>
   </si>
   <si>
     <t>50,416,000</t>
   </si>
   <si>
-    <t>55,000,000</t>
+    <t>48,399,000</t>
   </si>
   <si>
     <t>230,316,640</t>
   </si>
   <si>
-    <t>186,361,640</t>
+    <t>215,866,640</t>
   </si>
   <si>
     <t>364,927,520</t>
   </si>
   <si>
-    <t>338,289,020</t>
+    <t>361,077,520</t>
   </si>
   <si>
     <t>594,472,000</t>
   </si>
   <si>
-    <t>378,482,500</t>
+    <t>552,173,500</t>
   </si>
   <si>
     <t>15,666,000</t>
@@ -230,46 +230,49 @@
     <t>-1,308,312,443</t>
   </si>
   <si>
-    <t>-260,572,290</t>
+    <t>-1,184,373,479</t>
   </si>
   <si>
     <t>-235,581,986</t>
   </si>
   <si>
-    <t>-612,789,407</t>
+    <t>-236,786,132</t>
   </si>
   <si>
     <t>-766,086,864</t>
   </si>
   <si>
-    <t>-3,746,147,399</t>
+    <t>-621,198,383</t>
   </si>
   <si>
     <t>-27,129,394</t>
   </si>
   <si>
-    <t>-79,301,070</t>
+    <t>-23,987,530</t>
   </si>
   <si>
     <t>-1,599,041</t>
   </si>
   <si>
+    <t>-1,384,173</t>
+  </si>
+  <si>
     <t>-39,489,349</t>
   </si>
   <si>
-    <t>-106,163,008</t>
+    <t>-37,283,462</t>
   </si>
   <si>
     <t>-175,998,033</t>
   </si>
   <si>
-    <t>-1,033,509,256</t>
+    <t>-177,265,279</t>
   </si>
   <si>
     <t>-46,761,776</t>
   </si>
   <si>
-    <t>-1,144,636,896</t>
+    <t>-70,802,520</t>
   </si>
   <si>
     <t>-15,666,000</t>
@@ -284,24 +287,24 @@
     <t>4,316,437,323</t>
   </si>
   <si>
-    <t>2,260,159,020</t>
+    <t>4,313,699,823</t>
   </si>
   <si>
     <t>2,101,653,303</t>
   </si>
   <si>
+    <t>2,099,715,803</t>
+  </si>
+  <si>
     <t>419,765,962</t>
   </si>
   <si>
-    <t>449,578,462</t>
+    <t>413,467,962</t>
   </si>
   <si>
     <t>273,800,650</t>
   </si>
   <si>
-    <t>268,300,650</t>
-  </si>
-  <si>
     <t>10,803,500</t>
   </si>
   <si>
@@ -311,30 +314,27 @@
     <t>1,445,242,108</t>
   </si>
   <si>
-    <t>1,466,304,608</t>
+    <t>1,444,442,108</t>
   </si>
   <si>
     <t>-4,316,437,323</t>
   </si>
   <si>
-    <t>-2,260,159,020</t>
+    <t>-4,313,699,823</t>
   </si>
   <si>
     <t>-2,101,653,303</t>
   </si>
   <si>
+    <t>-2,099,715,803</t>
+  </si>
+  <si>
     <t>-419,765,962</t>
   </si>
   <si>
-    <t>-449,578,462</t>
-  </si>
-  <si>
     <t>-273,800,650</t>
   </si>
   <si>
-    <t>-268,300,650</t>
-  </si>
-  <si>
     <t>-10,803,500</t>
   </si>
   <si>
@@ -344,7 +344,7 @@
     <t>-1,445,242,108</t>
   </si>
   <si>
-    <t>-1,466,304,608</t>
+    <t>-1,444,442,108</t>
   </si>
   <si>
     <t>135,922,648</t>
@@ -359,27 +359,30 @@
     <t>3,488,933,969</t>
   </si>
   <si>
+    <t>3,770,272,958</t>
+  </si>
+  <si>
     <t>342,652,403</t>
   </si>
   <si>
+    <t>32,098,052</t>
+  </si>
+  <si>
     <t>147,692,944</t>
   </si>
   <si>
-    <t>21,727,000</t>
+    <t>31,248,664</t>
   </si>
   <si>
     <t>7,280,735</t>
   </si>
   <si>
-    <t>549,334</t>
+    <t>849,388</t>
   </si>
   <si>
     <t>21,678,300</t>
   </si>
   <si>
-    <t>3,842,000</t>
-  </si>
-  <si>
     <t>165,620,424</t>
   </si>
   <si>
@@ -389,28 +392,52 @@
     <t>-4,176,647</t>
   </si>
   <si>
-    <t>336,366</t>
+    <t>-622,877</t>
   </si>
   <si>
     <t>-53,887,934</t>
   </si>
   <si>
+    <t>132,944,383</t>
+  </si>
+  <si>
     <t>-94,289,373</t>
   </si>
   <si>
+    <t>733,354</t>
+  </si>
+  <si>
     <t>-15,725,775</t>
   </si>
   <si>
+    <t>144,888,481</t>
+  </si>
+  <si>
     <t>6,973,100</t>
   </si>
   <si>
+    <t>3,141,864</t>
+  </si>
+  <si>
+    <t>214,868</t>
+  </si>
+  <si>
     <t>41,935,073</t>
   </si>
   <si>
+    <t>2,205,887</t>
+  </si>
+  <si>
     <t>-19,438,118</t>
   </si>
   <si>
+    <t>-1,267,246</t>
+  </si>
+  <si>
     <t>28,256,200</t>
+  </si>
+  <si>
+    <t>-23,240,744</t>
   </si>
   <si>
     <t>-3,248,833</t>
@@ -1019,8 +1046,8 @@
       <c r="B24" t="s">
         <v>78</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="C24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1028,10 +1055,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1039,10 +1066,10 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1050,10 +1077,10 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1061,10 +1088,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1094,10 +1121,10 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1105,10 +1132,10 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1116,10 +1143,10 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1127,10 +1154,10 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1138,10 +1165,10 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1149,10 +1176,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1160,10 +1187,10 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1171,10 +1198,10 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1193,10 +1220,10 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1204,10 +1231,10 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1215,10 +1242,10 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1237,10 +1264,10 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1248,10 +1275,10 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1259,10 +1286,10 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1270,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
         <v>105</v>
@@ -1338,8 +1365,8 @@
       <c r="B53" t="s">
         <v>110</v>
       </c>
-      <c r="C53">
-        <v>0</v>
+      <c r="C53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1349,8 +1376,8 @@
       <c r="B54" t="s">
         <v>111</v>
       </c>
-      <c r="C54">
-        <v>0</v>
+      <c r="C54" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1360,8 +1387,8 @@
       <c r="B55" t="s">
         <v>112</v>
       </c>
-      <c r="C55">
-        <v>0</v>
+      <c r="C55" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1371,8 +1398,8 @@
       <c r="B56" t="s">
         <v>113</v>
       </c>
-      <c r="C56">
-        <v>0</v>
+      <c r="C56" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1382,8 +1409,8 @@
       <c r="B57" t="s">
         <v>113</v>
       </c>
-      <c r="C57">
-        <v>0</v>
+      <c r="C57" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1391,10 +1418,10 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1402,10 +1429,10 @@
         <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1413,10 +1440,10 @@
         <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1424,10 +1451,10 @@
         <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1435,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1446,7 +1473,7 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1457,10 +1484,10 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1468,10 +1495,10 @@
         <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1490,10 +1517,10 @@
         <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1501,10 +1528,10 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1512,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1523,10 +1550,10 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1536,8 +1563,8 @@
       <c r="B71" t="s">
         <v>78</v>
       </c>
-      <c r="C71">
-        <v>0</v>
+      <c r="C71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1545,10 +1572,10 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="C72" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1556,10 +1583,10 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1567,10 +1594,10 @@
         <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1589,7 +1616,7 @@
         <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1600,7 +1627,7 @@
         <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C77">
         <v>0</v>
